--- a/medicine/Handicap/Breathe_(film,_2017)/Breathe_(film,_2017).xlsx
+++ b/medicine/Handicap/Breathe_(film,_2017)/Breathe_(film,_2017).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Breathe, Inspire au Québec, est un film américain réalisé par Andy Serkis, sorti en 2017. Il s'agit d'un film biographique sur Robin Cavendish.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Robin Cavendish, un homme brillant et aventureux, voit sa vie prendre une tournure tragique lorsqu'il se retrouve paralysé par la poliomyélite à l'âge de 28 ans. Il va cependant pouvoir compter sur le soutien indéfectible de sa femme dévouée Diana.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : Breathe
@@ -566,7 +582,7 @@
 Format : couleur - 35 mm
 Genre : drame biographique
 Durée : 117 minutes
-Dates de sortie[1] :
+Dates de sortie :
 Canada : 12 septembre 2017
 États-Unis : 13 octobre 2017
 France : 1er novembre 2018 (vidéo à la demande « e-Cinéma »)</t>
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Andrew Garfield (VF : Donald Reignoux) : Robin Cavendish
 Claire Foy (VF : Adeline Moreau) : Diana Blacker
@@ -638,11 +656,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Genèse et développement
-Jonathan Cavendish (en), cofondateur de The Imaginarium Studios (en) avec Andy Serkis, charge l'écrivain William Nicholson d'écrire un scénario d'après la vie de son propre père, Robin Cavendish[2]. Jonathan Cavendish est également producteur du film. Il explique avoir voulu capturer avec ce film « la bande de fanfarons excentriques » qu'il a connu durant son enfance[3].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jonathan Cavendish (en), cofondateur de The Imaginarium Studios (en) avec Andy Serkis, charge l'écrivain William Nicholson d'écrire un scénario d'après la vie de son propre père, Robin Cavendish. Jonathan Cavendish est également producteur du film. Il explique avoir voulu capturer avec ce film « la bande de fanfarons excentriques » qu'il a connu durant son enfance.
 Le film est réalisé par Andy Serkis. Il s'agit de son premier long métrage, bien qu'il ait été tourné après son Jungle Book dont la sortie a été repoussée plusieurs fois jusqu'en 2018.
-Distribution des rôles
-Tournage</t>
+</t>
         </is>
       </c>
     </row>
